--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDatesOccurring.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDatesOccurring.xlsx
@@ -74,44 +74,36 @@
   </x:cellStyles>
   <x:dxfs count="4">
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FFA8E4A0"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFFA500"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FF0000FF"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDatesOccurring.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDatesOccurring.xlsx
@@ -397,7 +397,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
